--- a/Domibus-MSH-soapui-tests/src/main/soapui/reports/Domibus_3_2_4_test_results.xlsx
+++ b/Domibus-MSH-soapui-tests/src/main/soapui/reports/Domibus_3_2_4_test_results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="620">
   <si>
     <t>NEED RUNNING - 3rd/green AC enabled</t>
   </si>
@@ -1737,6 +1737,157 @@
   </si>
   <si>
     <t>45.007s</t>
+  </si>
+  <si>
+    <t>0.062s</t>
+  </si>
+  <si>
+    <t>8.827s</t>
+  </si>
+  <si>
+    <t>3.588s</t>
+  </si>
+  <si>
+    <t>12.473s</t>
+  </si>
+  <si>
+    <t>2.144s</t>
+  </si>
+  <si>
+    <t>6.456s</t>
+  </si>
+  <si>
+    <t>4.13s</t>
+  </si>
+  <si>
+    <t>2.257s</t>
+  </si>
+  <si>
+    <t>4.08s</t>
+  </si>
+  <si>
+    <t>4.105s</t>
+  </si>
+  <si>
+    <t>4.054s</t>
+  </si>
+  <si>
+    <t>4.177s</t>
+  </si>
+  <si>
+    <t>4.169s</t>
+  </si>
+  <si>
+    <t>4.202s</t>
+  </si>
+  <si>
+    <t>4.073s</t>
+  </si>
+  <si>
+    <t>4.586s</t>
+  </si>
+  <si>
+    <t>2.398s</t>
+  </si>
+  <si>
+    <t>4.146s</t>
+  </si>
+  <si>
+    <t>4.12s</t>
+  </si>
+  <si>
+    <t>4.083s</t>
+  </si>
+  <si>
+    <t>4.133s</t>
+  </si>
+  <si>
+    <t>4.069s</t>
+  </si>
+  <si>
+    <t>4.114s</t>
+  </si>
+  <si>
+    <t>4.061s</t>
+  </si>
+  <si>
+    <t>4.053s</t>
+  </si>
+  <si>
+    <t>4.121s</t>
+  </si>
+  <si>
+    <t>4.079s</t>
+  </si>
+  <si>
+    <t>43.716s</t>
+  </si>
+  <si>
+    <t>4.428s</t>
+  </si>
+  <si>
+    <t>0.027s</t>
+  </si>
+  <si>
+    <t>3.176s</t>
+  </si>
+  <si>
+    <t>4.301s</t>
+  </si>
+  <si>
+    <t>0.015s</t>
+  </si>
+  <si>
+    <t>18.449s</t>
+  </si>
+  <si>
+    <t>27.724s</t>
+  </si>
+  <si>
+    <t>2.184s</t>
+  </si>
+  <si>
+    <t>2.12s</t>
+  </si>
+  <si>
+    <t>7.067s</t>
+  </si>
+  <si>
+    <t>0.075s</t>
+  </si>
+  <si>
+    <t>69.071s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-04-2017 14:53:49: Test case FAILED on step 7: Download Message 1|| Returned error message[s]: 
+ |[Not SOAP Fault] Response is a SOAP Fault| 
+ |[Valid HTTP Status Codes] Response status code:500 is not in acceptable list of status codes| </t>
+  </si>
+  <si>
+    <t>5.442s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-04-2017 14:57:13: Test case FAILED on step 7: Download Message 1|| Returned error message[s]: 
+ |[Not SOAP Fault] Response is a SOAP Fault| 
+ |[Valid HTTP Status Codes] Response status code:500 is not in acceptable list of status codes| </t>
+  </si>
+  <si>
+    <t>38.144s</t>
+  </si>
+  <si>
+    <t>0.284s</t>
+  </si>
+  <si>
+    <t>0.287s</t>
+  </si>
+  <si>
+    <t>10.51s</t>
+  </si>
+  <si>
+    <t>18.777s</t>
+  </si>
+  <si>
+    <t>0.176s</t>
   </si>
 </sst>
 </file>
@@ -2987,11 +3138,11 @@
       <c r="G2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="15">
-        <v>42839.675012372689</v>
+      <c r="H2" s="15" t="n">
+        <v>42846.67847244213</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>487</v>
+        <v>571</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
@@ -3026,11 +3177,11 @@
       <c r="G3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="15">
-        <v>42839.675013715278</v>
+      <c r="H3" s="15" t="n">
+        <v>42846.67848834491</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>488</v>
+        <v>572</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="13" t="s">
@@ -3065,11 +3216,11 @@
       <c r="G4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="15">
-        <v>42839.675130520831</v>
+      <c r="H4" s="15" t="n">
+        <v>42873.585141111114</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>489</v>
+        <v>617</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
@@ -3212,11 +3363,11 @@
       <c r="G8" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H8" s="15">
-        <v>42839.675160960651</v>
+      <c r="H8" s="15" t="n">
+        <v>42846.678645486114</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>490</v>
+        <v>574</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
@@ -3288,11 +3439,11 @@
       <c r="G10" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H10" s="15">
-        <v>42839.675307465281</v>
+      <c r="H10" s="15" t="n">
+        <v>42846.67879300926</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>491</v>
+        <v>575</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
@@ -3357,11 +3508,11 @@
       <c r="G12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H12" s="15">
-        <v>42839.675337037035</v>
+      <c r="H12" s="15" t="n">
+        <v>42846.67881993055</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>492</v>
+        <v>576</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
@@ -3397,11 +3548,11 @@
       <c r="G13" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="15">
-        <v>42839.675421932872</v>
+      <c r="H13" s="15" t="n">
+        <v>42846.678897418984</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>493</v>
+        <v>577</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
@@ -3437,11 +3588,11 @@
       <c r="G14" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H14" s="15">
-        <v>42839.675473287039</v>
+      <c r="H14" s="15" t="n">
+        <v>42846.678947974535</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>494</v>
+        <v>578</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
@@ -3499,11 +3650,11 @@
       <c r="G16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="15">
-        <v>42839.675503530096</v>
+      <c r="H16" s="15" t="n">
+        <v>42846.678977118056</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
@@ -3532,11 +3683,11 @@
       <c r="G17" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="15">
-        <v>42839.675553356479</v>
+      <c r="H17" s="15" t="n">
+        <v>42846.67902636574</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>496</v>
+        <v>579</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
@@ -3565,11 +3716,11 @@
       <c r="G18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="15">
-        <v>42839.675602905096</v>
+      <c r="H18" s="15" t="n">
+        <v>42846.679075960645</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>462</v>
+        <v>580</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
@@ -3656,11 +3807,11 @@
       <c r="G21" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="15">
-        <v>42839.675651874997</v>
+      <c r="H21" s="15" t="n">
+        <v>42846.67912554398</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>497</v>
+        <v>581</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
@@ -3689,11 +3840,11 @@
       <c r="G22" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H22" s="15">
-        <v>42839.492473368053</v>
+      <c r="H22" s="15" t="n">
+        <v>42873.59151266204</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>469</v>
+        <v>619</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
@@ -3805,11 +3956,11 @@
       <c r="G26" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H26" s="15">
-        <v>42839.675700949076</v>
+      <c r="H26" s="15" t="n">
+        <v>42846.67917415509</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>498</v>
+        <v>579</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
@@ -3871,11 +4022,11 @@
       <c r="G28" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="15">
-        <v>42839.675751516203</v>
+      <c r="H28" s="15" t="n">
+        <v>42846.679223645835</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>499</v>
+        <v>582</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
@@ -3995,11 +4146,11 @@
       <c r="G32" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H32" s="15">
-        <v>42839.675802592596</v>
+      <c r="H32" s="15" t="n">
+        <v>42846.679273726855</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>500</v>
+        <v>583</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
@@ -4028,11 +4179,11 @@
       <c r="G33" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H33" s="15">
-        <v>42839.675852581022</v>
+      <c r="H33" s="15" t="n">
+        <v>42846.67932539352</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
@@ -4119,11 +4270,11 @@
       <c r="G36" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H36" s="15">
-        <v>42839.675901770832</v>
+      <c r="H36" s="15" t="n">
+        <v>42846.679374479165</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
@@ -4324,11 +4475,11 @@
       <c r="G43" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H43" s="15">
-        <v>42839.675951192126</v>
+      <c r="H43" s="15" t="n">
+        <v>42846.67942380787</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>503</v>
+        <v>460</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
@@ -4444,11 +4595,11 @@
       <c r="G47" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H47" s="15">
-        <v>42839.67600068287</v>
+      <c r="H47" s="15" t="n">
+        <v>42846.6794725</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
@@ -4477,11 +4628,11 @@
       <c r="G48" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H48" s="15">
-        <v>42839.676051215276</v>
+      <c r="H48" s="15" t="n">
+        <v>42846.67952165509</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>505</v>
+        <v>584</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
@@ -4568,11 +4719,11 @@
       <c r="G51" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H51" s="15">
-        <v>42839.676108576386</v>
+      <c r="H51" s="15" t="n">
+        <v>42846.67957408565</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>440</v>
+        <v>585</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
@@ -4659,11 +4810,11 @@
       <c r="G54" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H54" s="15">
-        <v>42839.676157870374</v>
+      <c r="H54" s="15" t="n">
+        <v>42846.67962337963</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1" t="s">
@@ -4725,11 +4876,11 @@
       <c r="G56" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H56" s="15">
-        <v>42839.676206678239</v>
+      <c r="H56" s="15" t="n">
+        <v>42846.67967762731</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>459</v>
+        <v>586</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
@@ -4787,11 +4938,11 @@
       <c r="G58" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H58" s="15">
-        <v>42839.67625798611</v>
+      <c r="H58" s="15" t="n">
+        <v>42846.67973241898</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
@@ -4820,11 +4971,11 @@
       <c r="G59" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H59" s="15">
-        <v>42839.676313657408</v>
+      <c r="H59" s="15" t="n">
+        <v>42846.67978160879</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>507</v>
+        <v>579</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
@@ -4886,11 +5037,11 @@
       <c r="G61" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H61" s="15">
-        <v>42839.67636326389</v>
+      <c r="H61" s="15" t="n">
+        <v>42846.67983094908</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>508</v>
+        <v>587</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
@@ -4977,11 +5128,11 @@
       <c r="G64" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H64" s="15">
-        <v>42839.676395543982</v>
+      <c r="H64" s="15" t="n">
+        <v>42846.67986560185</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>509</v>
+        <v>588</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
@@ -5039,11 +5190,11 @@
       <c r="G66" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H66" s="15">
-        <v>42839.676444976853</v>
+      <c r="H66" s="15" t="n">
+        <v>42846.67991545139</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>510</v>
+        <v>589</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
@@ -5072,11 +5223,11 @@
       <c r="G67" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H67" s="15">
-        <v>42839.676494722225</v>
+      <c r="H67" s="15" t="n">
+        <v>42846.679965219904</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
@@ -5105,11 +5256,11 @@
       <c r="G68" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H68" s="15">
-        <v>42839.676543784721</v>
+      <c r="H68" s="15" t="n">
+        <v>42846.68001456019</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>512</v>
+        <v>590</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
@@ -5167,11 +5318,11 @@
       <c r="G70" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H70" s="15">
-        <v>42839.676595324076</v>
+      <c r="H70" s="15" t="n">
+        <v>42846.680063761574</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>513</v>
+        <v>591</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1" t="s">
@@ -5229,11 +5380,11 @@
       <c r="G72" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H72" s="15">
-        <v>42839.676646157408</v>
+      <c r="H72" s="15" t="n">
+        <v>42846.680113125</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>509</v>
+        <v>465</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
@@ -5262,11 +5413,11 @@
       <c r="G73" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H73" s="15">
-        <v>42839.676695196758</v>
+      <c r="H73" s="15" t="n">
+        <v>42846.6801621412</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>514</v>
+        <v>440</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
@@ -5295,11 +5446,11 @@
       <c r="G74" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H74" s="15">
-        <v>42839.676745266202</v>
+      <c r="H74" s="15" t="n">
+        <v>42846.680211342595</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>460</v>
+        <v>592</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1" t="s">
@@ -5357,11 +5508,11 @@
       <c r="G76" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H76" s="15">
-        <v>42839.676794143517</v>
+      <c r="H76" s="15" t="n">
+        <v>42846.68026008102</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>515</v>
+        <v>593</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1" t="s">
@@ -5390,11 +5541,11 @@
       <c r="G77" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H77" s="15">
-        <v>42839.676843773152</v>
+      <c r="H77" s="15" t="n">
+        <v>42846.680309965275</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1" t="s">
@@ -5423,11 +5574,11 @@
       <c r="G78" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H78" s="15">
-        <v>42839.676893032411</v>
+      <c r="H78" s="15" t="n">
+        <v>42846.6803609375</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>461</v>
+        <v>594</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1" t="s">
@@ -5456,11 +5607,11 @@
       <c r="G79" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H79" s="15">
-        <v>42839.676943749997</v>
+      <c r="H79" s="15" t="n">
+        <v>42846.68040982639</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>516</v>
+        <v>579</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1" t="s">
@@ -5522,11 +5673,11 @@
       <c r="G81" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H81" s="15">
-        <v>42839.67699255787</v>
+      <c r="H81" s="15" t="n">
+        <v>42846.68045871528</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1" t="s">
@@ -5555,11 +5706,11 @@
       <c r="G82" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H82" s="15">
-        <v>42839.677041770832</v>
+      <c r="H82" s="15" t="n">
+        <v>42846.68050766204</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
@@ -5588,11 +5739,11 @@
       <c r="G83" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H83" s="15">
-        <v>42839.677092997685</v>
+      <c r="H83" s="15" t="n">
+        <v>42846.680558148146</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>501</v>
+        <v>593</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1" t="s">
@@ -5654,11 +5805,11 @@
       <c r="G85" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H85" s="15">
-        <v>42839.677142175926</v>
+      <c r="H85" s="15" t="n">
+        <v>42846.68060744213</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>464</v>
+        <v>595</v>
       </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1" t="s">
@@ -5743,11 +5894,11 @@
       <c r="G88" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H88" s="15">
-        <v>42839.677190983799</v>
+      <c r="H88" s="15" t="n">
+        <v>42846.68065613426</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>500</v>
+        <v>596</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>138</v>
@@ -5778,11 +5929,11 @@
       <c r="G89" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H89" s="15">
-        <v>42839.677239965276</v>
+      <c r="H89" s="15" t="n">
+        <v>42846.68070576389</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>517</v>
+        <v>597</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1" t="s">
@@ -5840,11 +5991,11 @@
       <c r="G91" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H91" s="15">
-        <v>42839.677288553241</v>
+      <c r="H91" s="15" t="n">
+        <v>42846.680754479166</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>518</v>
+        <v>598</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1" t="s">
@@ -5873,11 +6024,11 @@
       <c r="G92" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H92" s="15">
-        <v>42839.677795370371</v>
+      <c r="H92" s="15" t="n">
+        <v>42846.6812665625</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>519</v>
+        <v>599</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1" t="s">
@@ -5906,11 +6057,11 @@
       <c r="G93" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H93" s="15">
-        <v>42839.677847754632</v>
+      <c r="H93" s="15" t="n">
+        <v>42846.681320682874</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1" t="s">
@@ -5968,11 +6119,11 @@
       <c r="G95" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H95" s="15">
-        <v>42839.677849259257</v>
+      <c r="H95" s="15" t="n">
+        <v>42846.68132206018</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>521</v>
+        <v>601</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1" t="s">
@@ -6001,11 +6152,11 @@
       <c r="G96" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H96" s="15">
-        <v>42839.677891539352</v>
+      <c r="H96" s="15" t="n">
+        <v>42846.68136212963</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>522</v>
+        <v>602</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
@@ -6131,11 +6282,11 @@
       <c r="G100" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H100" s="15">
-        <v>42839.677944016206</v>
+      <c r="H100" s="15" t="n">
+        <v>42846.68141489584</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>523</v>
+        <v>603</v>
       </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1" t="s">
@@ -6164,11 +6315,11 @@
       <c r="G101" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H101" s="15">
-        <v>42839.677945416668</v>
+      <c r="H101" s="15" t="n">
+        <v>42873.590288252315</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>524</v>
+        <v>618</v>
       </c>
       <c r="J101" s="1"/>
       <c r="K101" s="1" t="s">
@@ -6263,11 +6414,11 @@
       <c r="G104" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H104" s="15">
-        <v>42839.67816369213</v>
+      <c r="H104" s="15" t="n">
+        <v>42846.681632465275</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>525</v>
+        <v>605</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1" t="s">
@@ -6296,11 +6447,11 @@
       <c r="G105" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H105" s="15">
-        <v>42839.678492256942</v>
+      <c r="H105" s="15" t="n">
+        <v>42846.68196258102</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>526</v>
+        <v>595</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1" t="s">
@@ -6362,11 +6513,11 @@
       <c r="G107" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H107" s="15">
-        <v>42839.678542476853</v>
+      <c r="H107" s="15" t="n">
+        <v>42846.68201121528</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>527</v>
+        <v>606</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1" t="s">
@@ -6395,11 +6546,11 @@
       <c r="G108" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H108" s="15">
-        <v>42839.678574548612</v>
+      <c r="H108" s="15" t="n">
+        <v>42846.68204096065</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>528</v>
+        <v>607</v>
       </c>
       <c r="J108" s="1"/>
       <c r="K108" s="1" t="s">
@@ -6457,11 +6608,11 @@
       <c r="G110" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H110" s="15">
-        <v>42839.678601689811</v>
+      <c r="H110" s="15" t="n">
+        <v>42846.68206737268</v>
       </c>
       <c r="I110" s="12" t="s">
-        <v>529</v>
+        <v>608</v>
       </c>
       <c r="J110" s="1"/>
       <c r="K110" s="1" t="s">
@@ -6548,11 +6699,11 @@
       <c r="G113" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H113" s="15">
-        <v>42839.67870113426</v>
+      <c r="H113" s="15" t="n">
+        <v>42846.682152037036</v>
       </c>
       <c r="I113" s="12" t="s">
-        <v>530</v>
+        <v>609</v>
       </c>
       <c r="J113" s="1"/>
       <c r="K113" s="1" t="s">
@@ -6697,11 +6848,11 @@
       <c r="G118" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H118" s="15">
-        <v>42839.678703414349</v>
+      <c r="H118" s="15" t="n">
+        <v>42846.682154027774</v>
       </c>
       <c r="I118" s="12" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="J118" s="1"/>
       <c r="K118" s="1" t="s">
@@ -6968,7 +7119,7 @@
         <v>136</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>483</v>
@@ -6981,17 +7132,17 @@
         <v>0</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H128" s="15">
-        <v>42839.659222789349</v>
+        <v>135</v>
+      </c>
+      <c r="H128" s="15" t="n">
+        <v>42852.62302690972</v>
       </c>
       <c r="I128" s="12" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="J128" s="1"/>
       <c r="K128" s="1" t="s">
-        <v>352</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -7122,10 +7273,10 @@
         <v>134</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>42843.38267396991</v>
+        <v>42873.385770266206</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
@@ -7161,10 +7312,10 @@
         <v>134</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>42843.382728344906</v>
+        <v>42873.385813761575</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">

--- a/Domibus-MSH-soapui-tests/src/main/soapui/reports/Domibus_3_2_4_test_results.xlsx
+++ b/Domibus-MSH-soapui-tests/src/main/soapui/reports/Domibus_3_2_4_test_results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="622">
   <si>
     <t>NEED RUNNING - 3rd/green AC enabled</t>
   </si>
@@ -1888,6 +1888,14 @@
   </si>
   <si>
     <t>0.176s</t>
+  </si>
+  <si>
+    <t>0.586s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-05-2017 11:41:21: Test case FAILED on step 1: Clean All|| Returned error message[s]: 
+ |com.mysql.jdbc.exceptions.jdbc4.MySQLIntegrityConstraintViolationException: Cannot delete or update a parent row: a foreign key constraint fails (`domibus_blue`.`tb_rawenvelope_log`, CONSTRAINT `FK_usermessage_id_fk_rawenvelope_id` FOREIGN KEY (`USERMESSAGE_ID_FK`) REFERENCES `tb_user_message` (`ID_PK`) ON DELETE NO ACTION ON UPDATE NO )| 
+ |error at line: 2| </t>
   </si>
 </sst>
 </file>
@@ -3136,17 +3144,17 @@
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>42846.67847244213</v>
+        <v>42874.487050069445</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>571</v>
+        <v>620</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>352</v>
+        <v>621</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>210</v>
@@ -3178,10 +3186,10 @@
         <v>134</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>42846.67848834491</v>
+        <v>42874.564301273145</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>572</v>
+        <v>464</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="13" t="s">

--- a/Domibus-MSH-soapui-tests/src/main/soapui/reports/Domibus_3_2_4_test_results.xlsx
+++ b/Domibus-MSH-soapui-tests/src/main/soapui/reports/Domibus_3_2_4_test_results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="725">
   <si>
     <t>NEED RUNNING - 3rd/green AC enabled</t>
   </si>
@@ -1896,6 +1896,346 @@
     <t xml:space="preserve">19-05-2017 11:41:21: Test case FAILED on step 1: Clean All|| Returned error message[s]: 
  |com.mysql.jdbc.exceptions.jdbc4.MySQLIntegrityConstraintViolationException: Cannot delete or update a parent row: a foreign key constraint fails (`domibus_blue`.`tb_rawenvelope_log`, CONSTRAINT `FK_usermessage_id_fk_rawenvelope_id` FOREIGN KEY (`USERMESSAGE_ID_FK`) REFERENCES `tb_user_message` (`ID_PK`) ON DELETE NO ACTION ON UPDATE NO )| 
  |error at line: 2| </t>
+  </si>
+  <si>
+    <t>0.464s</t>
+  </si>
+  <si>
+    <t>4.317s</t>
+  </si>
+  <si>
+    <t>2.102s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-05-2017 09:10:15: Test case FAILED on step 1: Submit Message|| Returned error message[s]: 
+ |org.apache.http.conn.HttpHostConnectException: Connection to http://localhost:8080 refused| </t>
+  </si>
+  <si>
+    <t>0.741s</t>
+  </si>
+  <si>
+    <t>9.144s</t>
+  </si>
+  <si>
+    <t>2.232s</t>
+  </si>
+  <si>
+    <t>12.464s</t>
+  </si>
+  <si>
+    <t>2.247s</t>
+  </si>
+  <si>
+    <t>6.397s</t>
+  </si>
+  <si>
+    <t>2.255s</t>
+  </si>
+  <si>
+    <t>4.085s</t>
+  </si>
+  <si>
+    <t>4.129s</t>
+  </si>
+  <si>
+    <t>4.09s</t>
+  </si>
+  <si>
+    <t>4.104s</t>
+  </si>
+  <si>
+    <t>4.087s</t>
+  </si>
+  <si>
+    <t>4.163s</t>
+  </si>
+  <si>
+    <t>4.204s</t>
+  </si>
+  <si>
+    <t>4.081s</t>
+  </si>
+  <si>
+    <t>2.192s</t>
+  </si>
+  <si>
+    <t>4.128s</t>
+  </si>
+  <si>
+    <t>4.07s</t>
+  </si>
+  <si>
+    <t>4.063s</t>
+  </si>
+  <si>
+    <t>4.111s</t>
+  </si>
+  <si>
+    <t>4.067s</t>
+  </si>
+  <si>
+    <t>5.491s</t>
+  </si>
+  <si>
+    <t>4.342s</t>
+  </si>
+  <si>
+    <t>0.025s</t>
+  </si>
+  <si>
+    <t>3.429s</t>
+  </si>
+  <si>
+    <t>4.165s</t>
+  </si>
+  <si>
+    <t>0.023s</t>
+  </si>
+  <si>
+    <t>18.166s</t>
+  </si>
+  <si>
+    <t>5.172s</t>
+  </si>
+  <si>
+    <t>2.19s</t>
+  </si>
+  <si>
+    <t>2.119s</t>
+  </si>
+  <si>
+    <t>8.087s</t>
+  </si>
+  <si>
+    <t>0.095s</t>
+  </si>
+  <si>
+    <t>4.238s</t>
+  </si>
+  <si>
+    <t>1.3s</t>
+  </si>
+  <si>
+    <t>0.421s</t>
+  </si>
+  <si>
+    <t>10.369s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-05-2017 09:19:24: Test case FAILED on step 2: Test|| Returned error message[s]: 
+ |java.lang.AssertionError: --DomJMS002-Submit Message-Basic Flow-Message with ID--Test--  Error:waitForStatus: Message -DomJMS002- is not present in the sender side.. Expression: (messageStatus != INIT). Values: messageStatus = INIT| 
+ |error at line: 2| </t>
+  </si>
+  <si>
+    <t>10.261s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-05-2017 09:19:35: Test case FAILED on step 2: Test 1|| Returned error message[s]: 
+ |java.lang.AssertionError: --DomJMS006-Submit Message-Exceptional flow-Data-Message ID-Unicity--Test 1--  Error:waitForStatus: Message -DomJMS006- is not present in the sender side.. Expression: (messageStatus != INIT). Values: messageStatus = INIT| 
+ |error at line: 2| </t>
+  </si>
+  <si>
+    <t>4.158s</t>
+  </si>
+  <si>
+    <t>4.184s</t>
+  </si>
+  <si>
+    <t>4.189s</t>
+  </si>
+  <si>
+    <t>2.452s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-05-2017 09:20:07: Test case FAILED on step 4: Test|| Returned error message[s]: 
+ |java.lang.AssertionError: --DomJMS017-Submit Message-conversationId--Test--  Error:verifyMessagePresence: Message with ID -DomJMS017-1- is not found in sender side.. Expression: (total &gt; 0). Values: total = 0| 
+ |error at line: 2| </t>
+  </si>
+  <si>
+    <t>2.286s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-05-2017 09:20:10: Test case FAILED on step 4: Test|| Returned error message[s]: 
+ |java.lang.AssertionError: --DomJMS018-Submit Message-refToMessageId--Test--  Error:verifyMessagePresence: Message with ID -DomJMS018-1- is not found in sender side.. Expression: (total &gt; 0). Values: total = 0| 
+ |error at line: 2| </t>
+  </si>
+  <si>
+    <t>6.226s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-05-2017 09:20:12: Test case FAILED on step 3: Test|| Returned error message[s]: 
+ |java.lang.AssertionError: --DomJMS024-Submit Message-fromRole-Mandatory--Test--  Error:verifyMessagePresence: Message with ID -DomJMS024-2- is not found in sender side.. Expression: (total &gt; 0). Values: total = 0| 
+ |error at line: 3| </t>
+  </si>
+  <si>
+    <t>4.141s</t>
+  </si>
+  <si>
+    <t>4.144s</t>
+  </si>
+  <si>
+    <t>6.208s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-05-2017 09:20:27: Test case FAILED on step 3: Test|| Returned error message[s]: 
+ |java.lang.AssertionError: --DomJMS032-Submit Message-fromPartyId-Mandatory--Test--  Error:verifyMessagePresence: Message with ID -DomJMS032-2- is not found in sender side.. Expression: (total &gt; 0). Values: total = 0| 
+ |error at line: 3| </t>
+  </si>
+  <si>
+    <t>6.228s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-05-2017 09:20:34: Test case FAILED on step 3: Test|| Returned error message[s]: 
+ |java.lang.AssertionError: --DomJMS034-Submit Message-fromPartyType-Mandatory--Test--  Error:verifyMessagePresence: Message with ID -DomJMS034-2- is not found in sender side.. Expression: (total &gt; 0). Values: total = 0| 
+ |error at line: 3| </t>
+  </si>
+  <si>
+    <t>6.194s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-05-2017 09:20:40: Test case FAILED on step 3: Test|| Returned error message[s]: 
+ |java.lang.AssertionError: --DomJMS036-Submit Message-toPartyId-Mandatory--Test--  Error:verifyMessagePresence: Message with ID -DomJMS036-2- is not found in sender side.. Expression: (total &gt; 0). Values: total = 0| 
+ |error at line: 3| </t>
+  </si>
+  <si>
+    <t>6.224s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-05-2017 09:20:46: Test case FAILED on step 3: Test|| Returned error message[s]: 
+ |java.lang.AssertionError: --DomJMS038-Submit Message-toPartyType-Mandatory--Test--  Error:verifyMessagePresence: Message with ID -DomJMS038-2- is not found in sender side.. Expression: (total &gt; 0). Values: total = 0| 
+ |error at line: 3| </t>
+  </si>
+  <si>
+    <t>6.193s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-05-2017 09:20:53: Test case FAILED on step 3: Test|| Returned error message[s]: 
+ |java.lang.AssertionError: --DomJMS044-Submit Message-totalNumberOfPayloads-Mandatory--Test--  Error:verifyMessagePresence: Message with ID -DomJMS044-2- is not found in sender side.. Expression: (total &gt; 0). Values: total = 0| 
+ |error at line: 3| </t>
+  </si>
+  <si>
+    <t>12.29s</t>
+  </si>
+  <si>
+    <t>2.095s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-05-2017 09:21:12: Test case FAILED on step 2: Test|| Returned error message[s]: 
+ |java.lang.AssertionError: --DomJMS050-Test Experience-Several payloads--Test--  Error:verifyMessagePresence: Message with ID -DomJMS050- is not found in sender side.. Expression: (total &gt; 0). Values: total = 0| 
+ |error at line: 2| </t>
+  </si>
+  <si>
+    <t>0.408s</t>
+  </si>
+  <si>
+    <t>0.384s</t>
+  </si>
+  <si>
+    <t>10.595s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-05-2017 10:28:01: Test case FAILED on step 2: Test|| Returned error message[s]: 
+ |java.lang.AssertionError: --DomJMS002-Submit Message-Basic Flow-Message with ID--Test--  Error:waitForStatus: Message -DomJMS002- is not present in the sender side.. Expression: (messageStatus != INIT). Values: messageStatus = INIT| 
+ |error at line: 2| </t>
+  </si>
+  <si>
+    <t>10.07s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-05-2017 10:28:25: Test case FAILED on step 2: Test|| Returned error message[s]: 
+ |java.lang.AssertionError: --DomJMS002-Submit Message-Basic Flow-Message with ID--Test--  Error:waitForStatus: Message -DomJMS002- is not present in the sender side.. Expression: (messageStatus != INIT). Values: messageStatus = INIT| 
+ |error at line: 2| </t>
+  </si>
+  <si>
+    <t>1.027s</t>
+  </si>
+  <si>
+    <t>2.096s</t>
+  </si>
+  <si>
+    <t>0.181s</t>
+  </si>
+  <si>
+    <t>0.069s</t>
+  </si>
+  <si>
+    <t>2.168s</t>
+  </si>
+  <si>
+    <t>6.282s</t>
+  </si>
+  <si>
+    <t>4.116s</t>
+  </si>
+  <si>
+    <t>4.224s</t>
+  </si>
+  <si>
+    <t>4.139s</t>
+  </si>
+  <si>
+    <t>4.14s</t>
+  </si>
+  <si>
+    <t>13.062s</t>
+  </si>
+  <si>
+    <t>12.758s</t>
+  </si>
+  <si>
+    <t>8.284s</t>
+  </si>
+  <si>
+    <t>4.162s</t>
+  </si>
+  <si>
+    <t>4.507s</t>
+  </si>
+  <si>
+    <t>8.244s</t>
+  </si>
+  <si>
+    <t>8.28s</t>
+  </si>
+  <si>
+    <t>8.293s</t>
+  </si>
+  <si>
+    <t>8.237s</t>
+  </si>
+  <si>
+    <t>8.22s</t>
+  </si>
+  <si>
+    <t>DomJMS048-Submit Message-payload_contentId</t>
+  </si>
+  <si>
+    <t>12.632s</t>
+  </si>
+  <si>
+    <t>2.09s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-05-2017 13:26:47: Test case FAILED on step 2: Test|| Returned error message[s]: 
+ |java.lang.AssertionError: --DomJMS050-Test Experience-Several payloads--Test--  Error:verifyMessagePresence: Message with ID -DomJMS050- is not found in sender side.. Expression: (total &gt; 0). Values: total = 0| 
+ |error at line: 2| </t>
+  </si>
+  <si>
+    <t>2.133s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-05-2017 13:28:54: Test case FAILED on step 2: Test|| Returned error message[s]: 
+ |java.lang.AssertionError: --DomJMS050-Test Experience-Several payloads--Test--  Error:verifyMessagePresence: Message with ID -DomJMS050- is not found in sender side.. Expression: (total &gt; 0). Values: total = 0| 
+ |error at line: 2| </t>
+  </si>
+  <si>
+    <t>14.131s</t>
+  </si>
+  <si>
+    <t>195.108s</t>
+  </si>
+  <si>
+    <t>55.463s</t>
   </si>
 </sst>
 </file>
@@ -3144,17 +3484,17 @@
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>42874.487050069445</v>
+        <v>42877.38479276621</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>621</v>
+        <v>352</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>210</v>
@@ -3186,10 +3526,10 @@
         <v>134</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>42874.564301273145</v>
+        <v>42877.384805092595</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>464</v>
+        <v>627</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="13" t="s">
@@ -3225,10 +3565,10 @@
         <v>134</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>42873.585141111114</v>
+        <v>42877.384918564814</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
@@ -3372,10 +3712,10 @@
         <v>134</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>42846.678645486114</v>
+        <v>42877.3849509838</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>574</v>
+        <v>629</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
@@ -3448,10 +3788,10 @@
         <v>134</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>42846.67879300926</v>
+        <v>42877.385100011576</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>575</v>
+        <v>630</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
@@ -3517,10 +3857,10 @@
         <v>134</v>
       </c>
       <c r="H12" s="15" t="n">
-        <v>42846.67881993055</v>
+        <v>42877.38512813657</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>576</v>
+        <v>631</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
@@ -3557,10 +3897,10 @@
         <v>134</v>
       </c>
       <c r="H13" s="15" t="n">
-        <v>42846.678897418984</v>
+        <v>42877.385206770836</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>577</v>
+        <v>512</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
@@ -3597,10 +3937,10 @@
         <v>134</v>
       </c>
       <c r="H14" s="15" t="n">
-        <v>42846.678947974535</v>
+        <v>42877.385257141206</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>578</v>
+        <v>632</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
@@ -3659,10 +3999,10 @@
         <v>134</v>
       </c>
       <c r="H16" s="15" t="n">
-        <v>42846.678977118056</v>
+        <v>42877.38528768519</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>496</v>
+        <v>633</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
@@ -3692,10 +4032,10 @@
         <v>134</v>
       </c>
       <c r="H17" s="15" t="n">
-        <v>42846.67902636574</v>
+        <v>42877.38533695602</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>579</v>
+        <v>459</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
@@ -3725,10 +4065,10 @@
         <v>134</v>
       </c>
       <c r="H18" s="15" t="n">
-        <v>42846.679075960645</v>
+        <v>42877.3853865162</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
@@ -3816,10 +4156,10 @@
         <v>134</v>
       </c>
       <c r="H21" s="15" t="n">
-        <v>42846.67912554398</v>
+        <v>42877.3854366088</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>581</v>
+        <v>635</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
@@ -3965,10 +4305,10 @@
         <v>134</v>
       </c>
       <c r="H26" s="15" t="n">
-        <v>42846.67917415509</v>
+        <v>42877.38548612269</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>579</v>
+        <v>435</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
@@ -4031,10 +4371,10 @@
         <v>134</v>
       </c>
       <c r="H28" s="15" t="n">
-        <v>42846.679223645835</v>
+        <v>42877.38553712963</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>582</v>
+        <v>636</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
@@ -4155,10 +4495,10 @@
         <v>134</v>
       </c>
       <c r="H32" s="15" t="n">
-        <v>42846.679273726855</v>
+        <v>42877.38558633102</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
@@ -4188,10 +4528,10 @@
         <v>134</v>
       </c>
       <c r="H33" s="15" t="n">
-        <v>42846.67932539352</v>
+        <v>42877.385635844905</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>509</v>
+        <v>637</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
@@ -4279,10 +4619,10 @@
         <v>134</v>
       </c>
       <c r="H36" s="15" t="n">
-        <v>42846.679374479165</v>
+        <v>42877.385685092595</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
@@ -4484,10 +4824,10 @@
         <v>134</v>
       </c>
       <c r="H43" s="15" t="n">
-        <v>42846.67942380787</v>
+        <v>42877.38573361111</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
@@ -4604,10 +4944,10 @@
         <v>134</v>
       </c>
       <c r="H47" s="15" t="n">
-        <v>42846.6794725</v>
+        <v>42877.385782592595</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>526</v>
+        <v>638</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
@@ -4637,10 +4977,10 @@
         <v>134</v>
       </c>
       <c r="H48" s="15" t="n">
-        <v>42846.67952165509</v>
+        <v>42877.38583287037</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>584</v>
+        <v>639</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
@@ -4728,10 +5068,10 @@
         <v>134</v>
       </c>
       <c r="H51" s="15" t="n">
-        <v>42846.67957408565</v>
+        <v>42877.38588541667</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
@@ -4819,10 +5159,10 @@
         <v>134</v>
       </c>
       <c r="H54" s="15" t="n">
-        <v>42846.67962337963</v>
+        <v>42877.38593476852</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>511</v>
+        <v>460</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1" t="s">
@@ -4885,10 +5225,10 @@
         <v>134</v>
       </c>
       <c r="H56" s="15" t="n">
-        <v>42846.67967762731</v>
+        <v>42877.385984016204</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
@@ -4947,10 +5287,10 @@
         <v>134</v>
       </c>
       <c r="H58" s="15" t="n">
-        <v>42846.67973241898</v>
+        <v>42877.38603420139</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>509</v>
+        <v>635</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
@@ -4980,10 +5320,10 @@
         <v>134</v>
       </c>
       <c r="H59" s="15" t="n">
-        <v>42846.67978160879</v>
+        <v>42877.38608390046</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>579</v>
+        <v>640</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
@@ -5046,10 +5386,10 @@
         <v>134</v>
       </c>
       <c r="H61" s="15" t="n">
-        <v>42846.67983094908</v>
+        <v>42877.38613329861</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>587</v>
+        <v>641</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
@@ -5137,10 +5477,10 @@
         <v>134</v>
       </c>
       <c r="H64" s="15" t="n">
-        <v>42846.67986560185</v>
+        <v>42877.38616327546</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>588</v>
+        <v>642</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
@@ -5199,10 +5539,10 @@
         <v>134</v>
       </c>
       <c r="H66" s="15" t="n">
-        <v>42846.67991545139</v>
+        <v>42877.38621416667</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
@@ -5232,10 +5572,10 @@
         <v>134</v>
       </c>
       <c r="H67" s="15" t="n">
-        <v>42846.679965219904</v>
+        <v>42877.386264594905</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>464</v>
+        <v>590</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
@@ -5265,10 +5605,10 @@
         <v>134</v>
       </c>
       <c r="H68" s="15" t="n">
-        <v>42846.68001456019</v>
+        <v>42877.3863134375</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>590</v>
+        <v>643</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
@@ -5327,10 +5667,10 @@
         <v>134</v>
       </c>
       <c r="H70" s="15" t="n">
-        <v>42846.680063761574</v>
+        <v>42877.386362199075</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>591</v>
+        <v>440</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1" t="s">
@@ -5389,10 +5729,10 @@
         <v>134</v>
       </c>
       <c r="H72" s="15" t="n">
-        <v>42846.680113125</v>
+        <v>42877.38641104167</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>465</v>
+        <v>633</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
@@ -5422,10 +5762,10 @@
         <v>134</v>
       </c>
       <c r="H73" s="15" t="n">
-        <v>42846.6801621412</v>
+        <v>42877.38646195602</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
@@ -5455,10 +5795,10 @@
         <v>134</v>
       </c>
       <c r="H74" s="15" t="n">
-        <v>42846.680211342595</v>
+        <v>42877.38651131945</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1" t="s">
@@ -5517,10 +5857,10 @@
         <v>134</v>
       </c>
       <c r="H76" s="15" t="n">
-        <v>42846.68026008102</v>
+        <v>42877.386560266204</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>593</v>
+        <v>500</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1" t="s">
@@ -5550,10 +5890,10 @@
         <v>134</v>
       </c>
       <c r="H77" s="15" t="n">
-        <v>42846.680309965275</v>
+        <v>42877.38660943287</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>464</v>
+        <v>592</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1" t="s">
@@ -5583,7 +5923,7 @@
         <v>134</v>
       </c>
       <c r="H78" s="15" t="n">
-        <v>42846.6803609375</v>
+        <v>42877.386658159725</v>
       </c>
       <c r="I78" s="12" t="s">
         <v>594</v>
@@ -5616,10 +5956,10 @@
         <v>134</v>
       </c>
       <c r="H79" s="15" t="n">
-        <v>42846.68040982639</v>
+        <v>42877.386706840276</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1" t="s">
@@ -5682,7 +6022,7 @@
         <v>134</v>
       </c>
       <c r="H81" s="15" t="n">
-        <v>42846.68045871528</v>
+        <v>42877.386755451385</v>
       </c>
       <c r="I81" s="12" t="s">
         <v>462</v>
@@ -5715,10 +6055,10 @@
         <v>134</v>
       </c>
       <c r="H82" s="15" t="n">
-        <v>42846.68050766204</v>
+        <v>42877.38680457176</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>461</v>
+        <v>645</v>
       </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
@@ -5748,10 +6088,10 @@
         <v>134</v>
       </c>
       <c r="H83" s="15" t="n">
-        <v>42846.680558148146</v>
+        <v>42877.38685380787</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>593</v>
+        <v>646</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1" t="s">
@@ -5814,10 +6154,10 @@
         <v>134</v>
       </c>
       <c r="H85" s="15" t="n">
-        <v>42846.68060744213</v>
+        <v>42877.386902673614</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>595</v>
+        <v>496</v>
       </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1" t="s">
@@ -5903,10 +6243,10 @@
         <v>134</v>
       </c>
       <c r="H88" s="15" t="n">
-        <v>42846.68065613426</v>
+        <v>42877.38695216435</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>596</v>
+        <v>498</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>138</v>
@@ -5938,10 +6278,10 @@
         <v>134</v>
       </c>
       <c r="H89" s="15" t="n">
-        <v>42846.68070576389</v>
+        <v>42877.38700123843</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1" t="s">
@@ -6000,10 +6340,10 @@
         <v>134</v>
       </c>
       <c r="H91" s="15" t="n">
-        <v>42846.680754479166</v>
+        <v>42877.387050300924</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>598</v>
+        <v>647</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1" t="s">
@@ -6033,10 +6373,10 @@
         <v>134</v>
       </c>
       <c r="H92" s="15" t="n">
-        <v>42846.6812665625</v>
+        <v>42877.38711710648</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>599</v>
+        <v>648</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1" t="s">
@@ -6066,10 +6406,10 @@
         <v>134</v>
       </c>
       <c r="H93" s="15" t="n">
-        <v>42846.681320682874</v>
+        <v>42877.387171041664</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>600</v>
+        <v>649</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1" t="s">
@@ -6128,10 +6468,10 @@
         <v>134</v>
       </c>
       <c r="H95" s="15" t="n">
-        <v>42846.68132206018</v>
+        <v>42877.38717255787</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>601</v>
+        <v>650</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1" t="s">
@@ -6161,10 +6501,10 @@
         <v>134</v>
       </c>
       <c r="H96" s="15" t="n">
-        <v>42846.68136212963</v>
+        <v>42877.3872147338</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>602</v>
+        <v>651</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
@@ -6291,10 +6631,10 @@
         <v>134</v>
       </c>
       <c r="H100" s="15" t="n">
-        <v>42846.68141489584</v>
+        <v>42877.38726611111</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>603</v>
+        <v>652</v>
       </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1" t="s">
@@ -6324,10 +6664,10 @@
         <v>134</v>
       </c>
       <c r="H101" s="15" t="n">
-        <v>42873.590288252315</v>
+        <v>42877.38726761574</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>618</v>
+        <v>653</v>
       </c>
       <c r="J101" s="1"/>
       <c r="K101" s="1" t="s">
@@ -6423,10 +6763,10 @@
         <v>134</v>
       </c>
       <c r="H104" s="15" t="n">
-        <v>42846.681632465275</v>
+        <v>42877.38748409722</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>605</v>
+        <v>654</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1" t="s">
@@ -6456,10 +6796,10 @@
         <v>134</v>
       </c>
       <c r="H105" s="15" t="n">
-        <v>42846.68196258102</v>
+        <v>42877.387547025464</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>595</v>
+        <v>517</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1" t="s">
@@ -6522,10 +6862,10 @@
         <v>134</v>
       </c>
       <c r="H107" s="15" t="n">
-        <v>42846.68201121528</v>
+        <v>42877.38759568287</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>606</v>
+        <v>655</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1" t="s">
@@ -6555,10 +6895,10 @@
         <v>134</v>
       </c>
       <c r="H108" s="15" t="n">
-        <v>42846.68204096065</v>
+        <v>42877.38762424768</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>607</v>
+        <v>656</v>
       </c>
       <c r="J108" s="1"/>
       <c r="K108" s="1" t="s">
@@ -6617,10 +6957,10 @@
         <v>134</v>
       </c>
       <c r="H110" s="15" t="n">
-        <v>42846.68206737268</v>
+        <v>42877.38765089121</v>
       </c>
       <c r="I110" s="12" t="s">
-        <v>608</v>
+        <v>657</v>
       </c>
       <c r="J110" s="1"/>
       <c r="K110" s="1" t="s">
@@ -6708,10 +7048,10 @@
         <v>134</v>
       </c>
       <c r="H113" s="15" t="n">
-        <v>42846.682152037036</v>
+        <v>42877.387747534725</v>
       </c>
       <c r="I113" s="12" t="s">
-        <v>609</v>
+        <v>658</v>
       </c>
       <c r="J113" s="1"/>
       <c r="K113" s="1" t="s">
@@ -6857,10 +7197,10 @@
         <v>134</v>
       </c>
       <c r="H118" s="15" t="n">
-        <v>42846.682154027774</v>
+        <v>42877.387749988426</v>
       </c>
       <c r="I118" s="12" t="s">
-        <v>541</v>
+        <v>659</v>
       </c>
       <c r="J118" s="1"/>
       <c r="K118" s="1" t="s">
@@ -7281,10 +7621,10 @@
         <v>134</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>42873.385770266206</v>
+        <v>42881.558739618056</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>615</v>
+        <v>698</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
@@ -7320,10 +7660,10 @@
         <v>134</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>42873.385813761575</v>
+        <v>42881.55874328704</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>616</v>
+        <v>699</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
@@ -7359,10 +7699,10 @@
         <v>134</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>42843.38274368056</v>
+        <v>42881.55874626157</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
@@ -7397,11 +7737,11 @@
       <c r="G5" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="15">
-        <v>42839.416181828703</v>
+      <c r="H5" s="15" t="n">
+        <v>42881.564579224534</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>455</v>
+        <v>722</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
@@ -7437,10 +7777,10 @@
         <v>134</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>42843.43368048611</v>
+        <v>42881.56552023148</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>569</v>
+        <v>723</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
@@ -7504,10 +7844,10 @@
         <v>134</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>42843.38285599537</v>
+        <v>42881.55877556713</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>551</v>
+        <v>701</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
@@ -7544,10 +7884,10 @@
         <v>134</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>42843.38293748842</v>
+        <v>42881.55885269676</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>552</v>
+        <v>702</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
@@ -7584,10 +7924,10 @@
         <v>134</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>42843.38299063657</v>
+        <v>42881.55890246528</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>553</v>
+        <v>703</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
@@ -7624,10 +7964,10 @@
         <v>134</v>
       </c>
       <c r="H11" s="15" t="n">
-        <v>42843.38304832176</v>
+        <v>42881.55895494213</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>554</v>
+        <v>704</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
@@ -7725,10 +8065,10 @@
         <v>134</v>
       </c>
       <c r="H14" s="15" t="n">
-        <v>42843.383098819446</v>
+        <v>42881.55900576389</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>555</v>
+        <v>705</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
@@ -7816,10 +8156,10 @@
         <v>134</v>
       </c>
       <c r="H17" s="15" t="n">
-        <v>42843.38314980324</v>
+        <v>42881.5590553125</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
@@ -7878,10 +8218,10 @@
         <v>134</v>
       </c>
       <c r="H19" s="15" t="n">
-        <v>42843.383201516204</v>
+        <v>42881.55911054398</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>557</v>
+        <v>706</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
@@ -7911,10 +8251,10 @@
         <v>134</v>
       </c>
       <c r="H20" s="15" t="n">
-        <v>42843.38336706018</v>
+        <v>42881.55926628472</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>558</v>
+        <v>707</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
@@ -8085,10 +8425,10 @@
         <v>134</v>
       </c>
       <c r="H26" s="15" t="n">
-        <v>42843.38352405093</v>
+        <v>42881.5594183912</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>559</v>
+        <v>708</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2" t="s">
@@ -8118,10 +8458,10 @@
         <v>134</v>
       </c>
       <c r="H27" s="15" t="n">
-        <v>42843.38362865741</v>
+        <v>42881.55951856481</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>560</v>
+        <v>709</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
@@ -8234,10 +8574,10 @@
         <v>134</v>
       </c>
       <c r="H31" s="15" t="n">
-        <v>42843.38367913194</v>
+        <v>42881.559568715275</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>561</v>
+        <v>710</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2" t="s">
@@ -8321,10 +8661,10 @@
         <v>134</v>
       </c>
       <c r="H34" s="15" t="n">
-        <v>42843.38372925926</v>
+        <v>42881.55962290509</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>562</v>
+        <v>711</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
@@ -8383,10 +8723,10 @@
         <v>134</v>
       </c>
       <c r="H36" s="15" t="n">
-        <v>42843.383828645834</v>
+        <v>42881.55972208334</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>563</v>
+        <v>712</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2" t="s">
@@ -8445,10 +8785,10 @@
         <v>134</v>
       </c>
       <c r="H38" s="15" t="n">
-        <v>42843.38393108796</v>
+        <v>42881.559821875</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>564</v>
+        <v>713</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2" t="s">
@@ -8507,10 +8847,10 @@
         <v>134</v>
       </c>
       <c r="H40" s="15" t="n">
-        <v>42843.38403599537</v>
+        <v>42881.559922280096</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>565</v>
+        <v>714</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2" t="s">
@@ -8693,10 +9033,10 @@
         <v>134</v>
       </c>
       <c r="H46" s="15" t="n">
-        <v>42843.38414045139</v>
+        <v>42881.560020763885</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>566</v>
+        <v>715</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2" t="s">
@@ -8807,7 +9147,7 @@
         <v>405</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>431</v>
+        <v>716</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>198</v>
@@ -8819,10 +9159,10 @@
         <v>134</v>
       </c>
       <c r="H50" s="15" t="n">
-        <v>42843.38423956018</v>
+        <v>42881.560122118055</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>455</v>
+        <v>717</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2" t="s">
@@ -8880,17 +9220,17 @@
         <v>0</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H52" s="15" t="n">
-        <v>42843.384388275466</v>
+        <v>42881.56173534722</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>567</v>
+        <v>720</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
-        <v>352</v>
+        <v>721</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -8916,10 +9256,10 @@
         <v>134</v>
       </c>
       <c r="H53" s="15" t="n">
-        <v>42843.38444140046</v>
+        <v>42881.56029625</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>568</v>
+        <v>510</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2" t="s">
@@ -8949,10 +9289,10 @@
         <v>134</v>
       </c>
       <c r="H54" s="15" t="n">
-        <v>42843.438627268515</v>
+        <v>42881.56947436342</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>570</v>
+        <v>724</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2" t="s">
